--- a/MultiTone/multiToneParameters_For_Generation.xlsx
+++ b/MultiTone/multiToneParameters_For_Generation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDC90DE-EDE1-41E9-934D-0212097CE4C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223C1740-19C5-48B3-AD37-52240437A71E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>freqEnd</t>
   </si>
@@ -53,6 +53,10 @@
   </si>
   <si>
     <t>freqStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,67 +423,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>97656</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C2" s="3">
         <v>200</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>25000</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>26</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>30</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>2</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/MultiTone/multiToneParameters_For_Generation.xlsx
+++ b/MultiTone/multiToneParameters_For_Generation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223C1740-19C5-48B3-AD37-52240437A71E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB1FA53-1618-42E0-98EF-B1604428342E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>freqEnd</t>
   </si>
@@ -129,11 +129,6 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -142,6 +137,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,79 +427,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="14.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>97656</v>
       </c>
-      <c r="C2" s="3">
-        <v>200</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="5">
         <v>25000</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>26</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
         <v>30</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="5">
         <v>2</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>97656</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>25000</v>
+      </c>
+      <c r="E3" s="5">
+        <v>26</v>
+      </c>
+      <c r="F3" s="5">
+        <v>100</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MultiTone/multiToneParameters_For_Generation.xlsx
+++ b/MultiTone/multiToneParameters_For_Generation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB1FA53-1618-42E0-98EF-B1604428342E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D15342-16EA-4221-BC1C-D650C6150883}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>freqEnd</t>
   </si>
@@ -57,6 +57,10 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,75,90</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +434,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -518,7 +522,7 @@
         <v>100</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H3" s="5">
         <v>2</v>

--- a/MultiTone/multiToneParameters_For_Generation.xlsx
+++ b/MultiTone/multiToneParameters_For_Generation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D15342-16EA-4221-BC1C-D650C6150883}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866D327B-1213-40FE-9648-906AABF421A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>freqEnd</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>60,75,90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,20,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version_Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/12/20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,9 +142,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -150,6 +161,11 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,104 +447,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="12.75" style="7" customWidth="1"/>
+    <col min="3" max="6" width="9" style="7"/>
+    <col min="7" max="7" width="14.125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="12" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9" style="7"/>
+    <col min="10" max="10" width="17.125" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>97656</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1000</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>25000</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>26</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>30</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>2</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>97656</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>1000</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>25000</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>26</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>100</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>2</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>97656</v>
+      </c>
+      <c r="C4" s="4">
+        <v>200</v>
+      </c>
+      <c r="D4" s="4">
+        <v>20000</v>
+      </c>
+      <c r="E4" s="4">
+        <v>26</v>
+      </c>
+      <c r="F4" s="4">
+        <v>50</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/MultiTone/multiToneParameters_For_Generation.xlsx
+++ b/MultiTone/multiToneParameters_For_Generation.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866D327B-1213-40FE-9648-906AABF421A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21730" windowHeight="10210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>freqStart</t>
+  </si>
   <si>
     <t>freqEnd</t>
   </si>
@@ -28,109 +31,432 @@
     <t>freqN</t>
   </si>
   <si>
+    <t>singleDur</t>
+  </si>
+  <si>
     <t>overlap</t>
   </si>
   <si>
-    <t>singleDur</t>
-  </si>
-  <si>
     <t>riseFallTime</t>
   </si>
   <si>
-    <t>fs</t>
+    <t>timeUnit</t>
+  </si>
+  <si>
+    <t>Version_Date</t>
+  </si>
+  <si>
+    <t>GenFcn</t>
   </si>
   <si>
     <t>0,10,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timeUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freqStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@MultiTone_S1S2Overlap_Gen</t>
   </si>
   <si>
     <t>60,75,90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10,20,40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Version_Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2022/12/20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@MultiTone_S1S2SingleOddEven_Gen</t>
+  </si>
+  <si>
+    <t>@MultiTone_S1S2SingleLowHighFreq_Gen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -138,47 +464,333 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -227,7 +839,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -262,7 +874,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -436,162 +1048,229 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="12.75" style="7" customWidth="1"/>
-    <col min="3" max="6" width="9" style="7"/>
-    <col min="7" max="7" width="14.125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="12" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9" style="7"/>
-    <col min="10" max="10" width="17.125" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="12.75" style="3" customWidth="1"/>
+    <col min="3" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="14.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9" style="3"/>
+    <col min="10" max="10" width="17.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="28.8333333333333" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:11">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>97656</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>25000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2">
+        <v>30</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:11">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>97656</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>25000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2">
+        <v>100</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:11">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>97656</v>
+      </c>
+      <c r="C4" s="2">
+        <v>200</v>
+      </c>
+      <c r="D4" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2">
+        <v>50</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>97657</v>
+      </c>
+      <c r="C5" s="2">
+        <v>200</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2">
+        <v>70</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="B6" s="7">
+        <v>97657</v>
+      </c>
+      <c r="C6" s="2">
+        <v>200</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>70</v>
+      </c>
+      <c r="H6" s="2">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>97656</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="4">
-        <v>25000</v>
-      </c>
-      <c r="E2" s="4">
-        <v>26</v>
-      </c>
-      <c r="F2" s="4">
-        <v>30</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>97656</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="4">
-        <v>25000</v>
-      </c>
-      <c r="E3" s="4">
-        <v>26</v>
-      </c>
-      <c r="F3" s="4">
-        <v>100</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="4">
-        <v>2</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>97656</v>
-      </c>
-      <c r="C4" s="4">
-        <v>200</v>
-      </c>
-      <c r="D4" s="4">
-        <v>20000</v>
-      </c>
-      <c r="E4" s="4">
-        <v>26</v>
-      </c>
-      <c r="F4" s="4">
-        <v>50</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="I6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="4">
-        <v>2</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>14</v>
+      <c r="K6" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/MultiTone/multiToneParameters_For_Generation.xlsx
+++ b/MultiTone/multiToneParameters_For_Generation.xlsx
@@ -5,85 +5,211 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ratNeuroPixel\ClickTrainGeneration\MultiTone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sounds\ClickTrainGeneration\MultiTone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8EC9CC-ABF2-4DFE-89BA-E3C328C16AEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E38C28E-9464-4E68-AF64-7ECE9B96B625}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21735" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21735" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="48">
+  <si>
+    <t>0,10,20</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>@MultiTone_S1S2Overlap_Gen</t>
+  </si>
+  <si>
+    <t>60,75,90</t>
+  </si>
+  <si>
+    <t>10,20,40</t>
+  </si>
+  <si>
+    <t>2022/12/20</t>
+  </si>
+  <si>
+    <t>@MultiTone_S1S2SingleOddEven_Gen</t>
+  </si>
+  <si>
+    <t>@MultiTone_S1S2SingleLowHighFreq_Gen</t>
+  </si>
+  <si>
+    <t>FreqDiff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmpDiff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangePoint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalChange</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeDuration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0.1,0.2,0.4,0.8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>@MultiTone_Single_Gen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version_Date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>fs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GenFcn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>freqStart</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>freqEnd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>freqN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>singleDur</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>overlap</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>riseFallTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>timeUnit</t>
-  </si>
-  <si>
-    <t>Version_Date</t>
-  </si>
-  <si>
-    <t>GenFcn</t>
-  </si>
-  <si>
-    <t>0,10,20</t>
-  </si>
-  <si>
-    <t>ms</t>
-  </si>
-  <si>
-    <t>@MultiTone_S1S2Overlap_Gen</t>
-  </si>
-  <si>
-    <t>60,75,90</t>
-  </si>
-  <si>
-    <t>10,20,40</t>
-  </si>
-  <si>
-    <t>2022/12/20</t>
-  </si>
-  <si>
-    <t>@MultiTone_S1S2SingleOddEven_Gen</t>
-  </si>
-  <si>
-    <t>@MultiTone_S1S2SingleLowHighFreq_Gen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParentFolderName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>folderName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>monkeySounds</t>
+  </si>
+  <si>
+    <t>monkeySounds</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HumanEEG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiTone_ID1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiTone_ID2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiTone_ID3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiTone_ID4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiTone_ID5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ComplexTone Amplitude Local Change </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComplexTone Frequency Local Change</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0.01,0.02,0.03,0.04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.05,-0.1,-0.15,-0.2,-0.25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-0.01,-0.02,-0.03,-0.04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComplexTone Frequency Local Change_400ms</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-0.009,-0.018,-0.027,-0.036</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-0.018,-0.022,-0.026,-0.03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,21 +218,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -120,21 +232,55 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -144,31 +290,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -444,222 +586,1018 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="12.75" style="3" customWidth="1"/>
-    <col min="3" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="14.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="17.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="45.75" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="30.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="2" customWidth="1"/>
+    <col min="5" max="8" width="9" style="2"/>
+    <col min="9" max="9" width="14.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="16.75" style="2" customWidth="1"/>
+    <col min="13" max="13" width="25.875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="22.125" style="3" customWidth="1"/>
+    <col min="15" max="16" width="25.25" style="2" customWidth="1"/>
+    <col min="17" max="17" width="17.125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="45.75" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
+    <row r="1" spans="1:18" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4">
+        <v>97656</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>25000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1">
+        <v>30</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="4">
+        <v>97656</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>25000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1">
+        <v>100</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4">
+        <v>97656</v>
+      </c>
+      <c r="E5" s="1">
+        <v>200</v>
+      </c>
+      <c r="F5" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1">
+        <v>50</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="R5" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4">
+        <v>97657</v>
+      </c>
+      <c r="E6" s="1">
+        <v>200</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1">
+        <v>70</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4">
+        <v>97657</v>
+      </c>
+      <c r="E7" s="1">
+        <v>200</v>
+      </c>
+      <c r="F7" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1">
+        <v>70</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="8" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4">
+        <v>384000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>500</v>
+      </c>
+      <c r="F10" s="1">
+        <v>48000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1">
+        <v>300</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="1">
+        <v>150</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4">
+        <v>384000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>500</v>
+      </c>
+      <c r="F11" s="1">
+        <v>48000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1">
+        <v>300</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="1">
+        <v>150</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="4">
+        <v>384000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>500</v>
+      </c>
+      <c r="F12" s="1">
+        <v>48000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1">
+        <v>300</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4">
+        <v>384000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>500</v>
+      </c>
+      <c r="F13" s="1">
+        <v>48000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1">
+        <v>300</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="1">
+        <v>150</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4">
         <v>97656</v>
       </c>
-      <c r="C2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="2">
-        <v>25000</v>
-      </c>
-      <c r="E2" s="2">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2">
-        <v>30</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="E14" s="1">
+        <v>500</v>
+      </c>
+      <c r="F14" s="1">
+        <v>48000</v>
+      </c>
+      <c r="G14" s="1">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1">
+        <v>300</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="H2" s="2">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="4">
+        <v>97656</v>
+      </c>
+      <c r="E15" s="1">
+        <v>500</v>
+      </c>
+      <c r="F15" s="1">
+        <v>48000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1">
+        <v>300</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="1">
+        <v>150</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="4">
         <v>97656</v>
       </c>
-      <c r="C3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="2">
-        <v>25000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2">
-        <v>100</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="E16" s="1">
+        <v>500</v>
+      </c>
+      <c r="F16" s="1">
+        <v>48000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1">
+        <v>400</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>400</v>
+      </c>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="4">
+        <v>97656</v>
+      </c>
+      <c r="E17" s="1">
+        <v>500</v>
+      </c>
+      <c r="F17" s="1">
+        <v>48000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1">
+        <v>400</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" s="1">
+        <v>200</v>
+      </c>
+      <c r="P17" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="H3" s="2">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="4">
         <v>97656</v>
       </c>
-      <c r="C4" s="2">
+      <c r="E18" s="1">
+        <v>500</v>
+      </c>
+      <c r="F18" s="1">
+        <v>48000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>13</v>
+      </c>
+      <c r="H18" s="1">
+        <v>400</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>400</v>
+      </c>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="4">
+        <v>97656</v>
+      </c>
+      <c r="E19" s="1">
+        <v>500</v>
+      </c>
+      <c r="F19" s="1">
+        <v>48000</v>
+      </c>
+      <c r="G19" s="1">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1">
+        <v>400</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O19" s="1">
         <v>200</v>
       </c>
-      <c r="D4" s="2">
-        <v>20000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2">
-        <v>50</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="P19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="8" t="s">
+    </row>
+    <row r="20" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>97657</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="4">
+        <v>97656</v>
+      </c>
+      <c r="E20" s="1">
+        <v>500</v>
+      </c>
+      <c r="F20" s="1">
+        <v>48000</v>
+      </c>
+      <c r="G20" s="1">
+        <v>13</v>
+      </c>
+      <c r="H20" s="1">
+        <v>400</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="1">
         <v>200</v>
       </c>
-      <c r="D5" s="2">
-        <v>20000</v>
-      </c>
-      <c r="E5" s="2">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2">
-        <v>70</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7">
-        <v>97657</v>
-      </c>
-      <c r="C6" s="2">
-        <v>200</v>
-      </c>
-      <c r="D6" s="2">
-        <v>20000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2">
-        <v>70</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>18</v>
+      <c r="P20" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>